--- a/target/classes/SESData.xlsx
+++ b/target/classes/SESData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\IctProject\StudentEnrolmentSystem\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{343F517A-1986-4A1E-A640-B0C0C45C7495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{959C9104-C3D1-430D-B8BD-7A0658015106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A11470C9-8811-442A-BFBD-DAD74EB10F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -62,9 +58,6 @@
     <t>Trainer</t>
   </si>
   <si>
-    <t>Geethu</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -72,6 +65,12 @@
   </si>
   <si>
     <t>saranya</t>
+  </si>
+  <si>
+    <t>geethu2gmail.com</t>
+  </si>
+  <si>
+    <t>trainer</t>
   </si>
 </sst>
 </file>
@@ -125,10 +124,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -444,19 +441,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40FF22D-BC67-4F50-BCC9-99EF9A1B26AF}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -472,21 +469,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -494,30 +491,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{4FBF399F-F7E4-4ECD-A89A-9321E432AC0A}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{9F488478-8D08-4F1B-8096-6E600997C998}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
